--- a/rcb_woj.xlsx
+++ b/rcb_woj.xlsx
@@ -800,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>3060</v>
@@ -841,10 +841,10 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1788</v>
@@ -882,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1569</v>
@@ -923,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1507</v>
@@ -964,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1553</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>25</v>
@@ -1046,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>37</v>
@@ -1087,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>2402</v>
@@ -1128,10 +1128,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1523</v>
@@ -1169,10 +1169,10 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1283</v>
@@ -1210,10 +1210,10 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1203</v>
@@ -1251,10 +1251,10 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1179</v>
@@ -1292,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>20</v>
@@ -1333,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1374,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2253</v>
@@ -1415,10 +1415,10 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1346</v>
@@ -1456,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1166</v>
@@ -1497,10 +1497,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1085</v>
@@ -1538,10 +1538,10 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1062</v>
@@ -1661,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1839</v>
@@ -1702,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1184</v>
@@ -1743,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>1106</v>
@@ -1784,10 +1784,10 @@
         <v>15</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>999</v>
@@ -1825,10 +1825,10 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>1046</v>
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>19</v>
@@ -1907,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1559</v>
@@ -1989,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1109</v>
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G87">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>2982</v>
@@ -4326,10 +4326,10 @@
         <v>13</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G88">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1727</v>
@@ -4367,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G89">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>1514</v>
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>1635</v>
@@ -4449,10 +4449,10 @@
         <v>3</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G91">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1640</v>
@@ -4490,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G92">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>76</v>
@@ -4531,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>65</v>
@@ -4572,10 +4572,10 @@
         <v>6</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>2827</v>
@@ -4613,10 +4613,10 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>1698</v>
@@ -4654,10 +4654,10 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>1556</v>
@@ -4695,10 +4695,10 @@
         <v>6</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>1578</v>
@@ -4736,10 +4736,10 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1535</v>
@@ -4777,10 +4777,10 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>109</v>
@@ -4818,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>54</v>
@@ -4859,10 +4859,10 @@
         <v>7</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G101">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>2580</v>
@@ -4900,10 +4900,10 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G102">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1560</v>
@@ -4941,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1503</v>
@@ -4982,10 +4982,10 @@
         <v>16</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1532</v>
@@ -5023,10 +5023,10 @@
         <v>11</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G105">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>1607</v>
@@ -5064,10 +5064,10 @@
         <v>4</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G106">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>101</v>
@@ -5105,10 +5105,10 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>57</v>
@@ -5146,10 +5146,10 @@
         <v>7</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G108">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>2372</v>
@@ -5187,10 +5187,10 @@
         <v>7</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G109">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1604</v>
@@ -5228,10 +5228,10 @@
         <v>8</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G110">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>1520</v>
@@ -5269,10 +5269,10 @@
         <v>5</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G111">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>1550</v>
@@ -5310,10 +5310,10 @@
         <v>6</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G112">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>1601</v>
@@ -5351,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>154</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>108</v>
@@ -5433,10 +5433,10 @@
         <v>5</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G115">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>2600</v>
@@ -5474,10 +5474,10 @@
         <v>3</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G116">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>1772</v>
@@ -7770,10 +7770,10 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G172">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>2216</v>
@@ -7811,10 +7811,10 @@
         <v>3</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G173">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>1177</v>
@@ -7852,10 +7852,10 @@
         <v>5</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G174">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>1225</v>
@@ -7893,10 +7893,10 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G175">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>1111</v>
@@ -7934,10 +7934,10 @@
         <v>13</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>1135</v>
@@ -7975,10 +7975,10 @@
         <v>4</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G177">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>20</v>
@@ -8016,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G178">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>14</v>
@@ -8057,10 +8057,10 @@
         <v>7</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G179">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>1779</v>
@@ -8098,10 +8098,10 @@
         <v>7</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G180">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>980</v>
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G181">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>944</v>
@@ -8180,10 +8180,10 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G182">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>962</v>
@@ -8221,10 +8221,10 @@
         <v>14</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G183">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>960</v>
@@ -8262,10 +8262,10 @@
         <v>3</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G184">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>21</v>
@@ -8303,10 +8303,10 @@
         <v>3</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>12</v>
@@ -8344,10 +8344,10 @@
         <v>5</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G186">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>1576</v>
@@ -8385,10 +8385,10 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G187">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>902</v>
@@ -8426,10 +8426,10 @@
         <v>12</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G188">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>843</v>
@@ -8467,10 +8467,10 @@
         <v>5</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>830</v>
@@ -8508,10 +8508,10 @@
         <v>5</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G190">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>837</v>
@@ -8549,10 +8549,10 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G191">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>17</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G192">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>18</v>
@@ -8631,10 +8631,10 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G193">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>1409</v>
@@ -8672,10 +8672,10 @@
         <v>6</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G194">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>834</v>
@@ -8713,10 +8713,10 @@
         <v>10</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G195">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>898</v>
@@ -8754,10 +8754,10 @@
         <v>3</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G196">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>895</v>
@@ -8795,10 +8795,10 @@
         <v>5</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G197">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>889</v>
@@ -8836,10 +8836,10 @@
         <v>5</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G198">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>20</v>
@@ -8918,10 +8918,10 @@
         <v>9</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G200">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>1417</v>
@@ -8959,10 +8959,10 @@
         <v>6</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G201">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>939</v>
@@ -11255,10 +11255,10 @@
         <v>5</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G257">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>1199</v>
@@ -11296,10 +11296,10 @@
         <v>2</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G258">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <v>623</v>
@@ -11337,10 +11337,10 @@
         <v>3</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G259">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H259">
         <v>581</v>
@@ -11378,10 +11378,10 @@
         <v>6</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G260">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <v>546</v>
@@ -11419,10 +11419,10 @@
         <v>5</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G261">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>578</v>
@@ -11460,10 +11460,10 @@
         <v>3</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G262">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>11</v>
@@ -11542,10 +11542,10 @@
         <v>2</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H264">
         <v>977</v>
@@ -11583,10 +11583,10 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G265">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H265">
         <v>632</v>
@@ -11624,10 +11624,10 @@
         <v>4</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G266">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>558</v>
@@ -11665,10 +11665,10 @@
         <v>1</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G267">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>482</v>
@@ -11706,10 +11706,10 @@
         <v>4</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G268">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H268">
         <v>510</v>
@@ -11829,10 +11829,10 @@
         <v>2</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G271">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>917</v>
@@ -11870,10 +11870,10 @@
         <v>6</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G272">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H272">
         <v>518</v>
@@ -11911,10 +11911,10 @@
         <v>12</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G273">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H273">
         <v>481</v>
@@ -11952,10 +11952,10 @@
         <v>11</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G274">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H274">
         <v>504</v>
@@ -11993,10 +11993,10 @@
         <v>6</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G275">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H275">
         <v>541</v>
@@ -12075,10 +12075,10 @@
         <v>4</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G277">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H277">
         <v>11</v>
@@ -12116,10 +12116,10 @@
         <v>9</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G278">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H278">
         <v>831</v>
@@ -12157,10 +12157,10 @@
         <v>22</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G279">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H279">
         <v>508</v>
@@ -12198,10 +12198,10 @@
         <v>18</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H280">
         <v>481</v>
@@ -12239,10 +12239,10 @@
         <v>20</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G281">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H281">
         <v>493</v>
@@ -12280,10 +12280,10 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G282">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H282">
         <v>522</v>
@@ -12403,10 +12403,10 @@
         <v>2</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>804</v>
@@ -14740,10 +14740,10 @@
         <v>1</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G342">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H342">
         <v>5425</v>
@@ -14781,10 +14781,10 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G343">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H343">
         <v>3459</v>
@@ -14822,10 +14822,10 @@
         <v>4</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G344">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H344">
         <v>3222</v>
@@ -14863,10 +14863,10 @@
         <v>7</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G345">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H345">
         <v>2991</v>
@@ -14904,10 +14904,10 @@
         <v>6</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G346">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H346">
         <v>3021</v>
@@ -14945,10 +14945,10 @@
         <v>5</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G347">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H347">
         <v>36</v>
@@ -14986,10 +14986,10 @@
         <v>0</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G348">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H348">
         <v>38</v>
@@ -15027,10 +15027,10 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G349">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H349">
         <v>4384</v>
@@ -15068,10 +15068,10 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G350">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H350">
         <v>2852</v>
@@ -15109,10 +15109,10 @@
         <v>6</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G351">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H351">
         <v>2903</v>
@@ -15150,10 +15150,10 @@
         <v>9</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G352">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H352">
         <v>2653</v>
@@ -15191,10 +15191,10 @@
         <v>5</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G353">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H353">
         <v>2629</v>
@@ -15232,10 +15232,10 @@
         <v>2</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G354">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H354">
         <v>72</v>
@@ -15273,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G355">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H355">
         <v>49</v>
@@ -15314,10 +15314,10 @@
         <v>18</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G356">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H356">
         <v>4016</v>
@@ -15355,10 +15355,10 @@
         <v>5</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G357">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H357">
         <v>2723</v>
@@ -15396,10 +15396,10 @@
         <v>18</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G358">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H358">
         <v>2583</v>
@@ -15437,10 +15437,10 @@
         <v>11</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G359">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H359">
         <v>2678</v>
@@ -15478,10 +15478,10 @@
         <v>27</v>
       </c>
       <c r="F360">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G360">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H360">
         <v>2540</v>
@@ -15519,10 +15519,10 @@
         <v>14</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G361">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H361">
         <v>60</v>
@@ -15560,10 +15560,10 @@
         <v>4</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G362">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H362">
         <v>32</v>
@@ -15601,10 +15601,10 @@
         <v>3</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G363">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H363">
         <v>3669</v>
@@ -15642,10 +15642,10 @@
         <v>18</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G364">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H364">
         <v>2532</v>
@@ -15683,10 +15683,10 @@
         <v>13</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G365">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H365">
         <v>2399</v>
@@ -15724,10 +15724,10 @@
         <v>12</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G366">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H366">
         <v>2432</v>
@@ -15765,10 +15765,10 @@
         <v>10</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G367">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H367">
         <v>2683</v>
@@ -15806,10 +15806,10 @@
         <v>5</v>
       </c>
       <c r="F368">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G368">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H368">
         <v>54</v>
@@ -15847,10 +15847,10 @@
         <v>1</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G369">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H369">
         <v>66</v>
@@ -15888,10 +15888,10 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G370">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H370">
         <v>3960</v>
@@ -15929,10 +15929,10 @@
         <v>9</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G371">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H371">
         <v>2884</v>
@@ -18225,10 +18225,10 @@
         <v>19</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G427">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H427">
         <v>2072</v>
@@ -18266,10 +18266,10 @@
         <v>28</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G428">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H428">
         <v>1197</v>
@@ -18307,10 +18307,10 @@
         <v>14</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G429">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H429">
         <v>1152</v>
@@ -18348,10 +18348,10 @@
         <v>27</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G430">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H430">
         <v>1134</v>
@@ -18389,10 +18389,10 @@
         <v>15</v>
       </c>
       <c r="F431">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G431">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H431">
         <v>1089</v>
@@ -18430,10 +18430,10 @@
         <v>7</v>
       </c>
       <c r="F432">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H432">
         <v>5</v>
@@ -18471,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H433">
         <v>9</v>
@@ -18512,10 +18512,10 @@
         <v>16</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G434">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H434">
         <v>1522</v>
@@ -18553,10 +18553,10 @@
         <v>15</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G435">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H435">
         <v>955</v>
@@ -18594,10 +18594,10 @@
         <v>27</v>
       </c>
       <c r="F436">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G436">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H436">
         <v>885</v>
@@ -18635,10 +18635,10 @@
         <v>17</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G437">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H437">
         <v>831</v>
@@ -18676,10 +18676,10 @@
         <v>16</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G438">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H438">
         <v>774</v>
@@ -18717,10 +18717,10 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H439">
         <v>16</v>
@@ -18799,10 +18799,10 @@
         <v>18</v>
       </c>
       <c r="F441">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G441">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H441">
         <v>1271</v>
@@ -18840,10 +18840,10 @@
         <v>16</v>
       </c>
       <c r="F442">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G442">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H442">
         <v>796</v>
@@ -18881,10 +18881,10 @@
         <v>11</v>
       </c>
       <c r="F443">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G443">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H443">
         <v>739</v>
@@ -18922,10 +18922,10 @@
         <v>14</v>
       </c>
       <c r="F444">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G444">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H444">
         <v>727</v>
@@ -18963,10 +18963,10 @@
         <v>7</v>
       </c>
       <c r="F445">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G445">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H445">
         <v>747</v>
@@ -19004,10 +19004,10 @@
         <v>2</v>
       </c>
       <c r="F446">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G446">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H446">
         <v>11</v>
@@ -19086,10 +19086,10 @@
         <v>7</v>
       </c>
       <c r="F448">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G448">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H448">
         <v>1097</v>
@@ -19127,10 +19127,10 @@
         <v>18</v>
       </c>
       <c r="F449">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G449">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H449">
         <v>715</v>
@@ -19168,10 +19168,10 @@
         <v>9</v>
       </c>
       <c r="F450">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G450">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H450">
         <v>685</v>
@@ -19209,10 +19209,10 @@
         <v>10</v>
       </c>
       <c r="F451">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G451">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H451">
         <v>659</v>
@@ -19250,10 +19250,10 @@
         <v>13</v>
       </c>
       <c r="F452">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G452">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H452">
         <v>702</v>
@@ -19291,10 +19291,10 @@
         <v>0</v>
       </c>
       <c r="F453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H453">
         <v>9</v>
@@ -19373,10 +19373,10 @@
         <v>13</v>
       </c>
       <c r="F455">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G455">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H455">
         <v>1045</v>
@@ -19414,10 +19414,10 @@
         <v>11</v>
       </c>
       <c r="F456">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G456">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H456">
         <v>723</v>
@@ -21710,10 +21710,10 @@
         <v>0</v>
       </c>
       <c r="F512">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G512">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H512">
         <v>1096</v>
@@ -21751,10 +21751,10 @@
         <v>2</v>
       </c>
       <c r="F513">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G513">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H513">
         <v>619</v>
@@ -21792,10 +21792,10 @@
         <v>0</v>
       </c>
       <c r="F514">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G514">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H514">
         <v>571</v>
@@ -21833,10 +21833,10 @@
         <v>1</v>
       </c>
       <c r="F515">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G515">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H515">
         <v>511</v>
@@ -21874,10 +21874,10 @@
         <v>0</v>
       </c>
       <c r="F516">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G516">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H516">
         <v>487</v>
@@ -21915,10 +21915,10 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G517">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H517">
         <v>13</v>
@@ -21997,10 +21997,10 @@
         <v>2</v>
       </c>
       <c r="F519">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G519">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H519">
         <v>813</v>
@@ -22038,10 +22038,10 @@
         <v>2</v>
       </c>
       <c r="F520">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G520">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H520">
         <v>553</v>
@@ -22079,10 +22079,10 @@
         <v>5</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G521">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H521">
         <v>470</v>
@@ -22120,10 +22120,10 @@
         <v>2</v>
       </c>
       <c r="F522">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G522">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H522">
         <v>424</v>
@@ -22161,10 +22161,10 @@
         <v>1</v>
       </c>
       <c r="F523">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G523">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H523">
         <v>468</v>
@@ -22202,10 +22202,10 @@
         <v>1</v>
       </c>
       <c r="F524">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G524">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H524">
         <v>7</v>
@@ -22243,10 +22243,10 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H525">
         <v>13</v>
@@ -22284,10 +22284,10 @@
         <v>2</v>
       </c>
       <c r="F526">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G526">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H526">
         <v>723</v>
@@ -22325,10 +22325,10 @@
         <v>0</v>
       </c>
       <c r="F527">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G527">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H527">
         <v>418</v>
@@ -22366,10 +22366,10 @@
         <v>1</v>
       </c>
       <c r="F528">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G528">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H528">
         <v>340</v>
@@ -22407,10 +22407,10 @@
         <v>1</v>
       </c>
       <c r="F529">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G529">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H529">
         <v>348</v>
@@ -22448,10 +22448,10 @@
         <v>2</v>
       </c>
       <c r="F530">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G530">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H530">
         <v>352</v>
@@ -22530,10 +22530,10 @@
         <v>0</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>7</v>
@@ -22571,10 +22571,10 @@
         <v>3</v>
       </c>
       <c r="F533">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G533">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H533">
         <v>603</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="F534">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G534">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H534">
         <v>333</v>
@@ -22653,10 +22653,10 @@
         <v>1</v>
       </c>
       <c r="F535">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G535">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H535">
         <v>293</v>
@@ -22694,10 +22694,10 @@
         <v>1</v>
       </c>
       <c r="F536">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G536">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H536">
         <v>326</v>
@@ -22735,10 +22735,10 @@
         <v>1</v>
       </c>
       <c r="F537">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G537">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H537">
         <v>299</v>
@@ -22776,10 +22776,10 @@
         <v>0</v>
       </c>
       <c r="F538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538">
         <v>17</v>
@@ -22817,10 +22817,10 @@
         <v>1</v>
       </c>
       <c r="F539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H539">
         <v>6</v>
@@ -22858,10 +22858,10 @@
         <v>3</v>
       </c>
       <c r="F540">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G540">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H540">
         <v>510</v>
@@ -22899,10 +22899,10 @@
         <v>2</v>
       </c>
       <c r="F541">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G541">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H541">
         <v>301</v>
@@ -25195,10 +25195,10 @@
         <v>3</v>
       </c>
       <c r="F597">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G597">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H597">
         <v>1241</v>
@@ -25236,10 +25236,10 @@
         <v>3</v>
       </c>
       <c r="F598">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G598">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H598">
         <v>754</v>
@@ -25277,10 +25277,10 @@
         <v>10</v>
       </c>
       <c r="F599">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G599">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H599">
         <v>651</v>
@@ -25318,10 +25318,10 @@
         <v>1</v>
       </c>
       <c r="F600">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G600">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H600">
         <v>681</v>
@@ -25359,10 +25359,10 @@
         <v>14</v>
       </c>
       <c r="F601">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G601">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H601">
         <v>648</v>
@@ -25400,10 +25400,10 @@
         <v>5</v>
       </c>
       <c r="F602">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G602">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H602">
         <v>15</v>
@@ -25441,10 +25441,10 @@
         <v>1</v>
       </c>
       <c r="F603">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G603">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H603">
         <v>5</v>
@@ -25482,10 +25482,10 @@
         <v>2</v>
       </c>
       <c r="F604">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G604">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H604">
         <v>923</v>
@@ -25523,10 +25523,10 @@
         <v>6</v>
       </c>
       <c r="F605">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G605">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H605">
         <v>531</v>
@@ -25564,10 +25564,10 @@
         <v>9</v>
       </c>
       <c r="F606">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G606">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H606">
         <v>481</v>
@@ -25605,10 +25605,10 @@
         <v>7</v>
       </c>
       <c r="F607">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G607">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H607">
         <v>466</v>
@@ -25646,10 +25646,10 @@
         <v>5</v>
       </c>
       <c r="F608">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G608">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H608">
         <v>446</v>
@@ -25687,10 +25687,10 @@
         <v>1</v>
       </c>
       <c r="F609">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G609">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H609">
         <v>8</v>
@@ -25728,10 +25728,10 @@
         <v>0</v>
       </c>
       <c r="F610">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G610">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H610">
         <v>2</v>
@@ -25769,10 +25769,10 @@
         <v>5</v>
       </c>
       <c r="F611">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G611">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H611">
         <v>707</v>
@@ -25810,10 +25810,10 @@
         <v>7</v>
       </c>
       <c r="F612">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G612">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H612">
         <v>421</v>
@@ -25851,10 +25851,10 @@
         <v>8</v>
       </c>
       <c r="F613">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G613">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H613">
         <v>408</v>
@@ -25892,10 +25892,10 @@
         <v>8</v>
       </c>
       <c r="F614">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G614">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H614">
         <v>382</v>
@@ -25933,10 +25933,10 @@
         <v>4</v>
       </c>
       <c r="F615">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G615">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H615">
         <v>438</v>
@@ -25974,10 +25974,10 @@
         <v>3</v>
       </c>
       <c r="F616">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G616">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H616">
         <v>8</v>
@@ -26015,10 +26015,10 @@
         <v>0</v>
       </c>
       <c r="F617">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G617">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H617">
         <v>4</v>
@@ -26056,10 +26056,10 @@
         <v>2</v>
       </c>
       <c r="F618">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G618">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H618">
         <v>673</v>
@@ -26097,10 +26097,10 @@
         <v>9</v>
       </c>
       <c r="F619">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G619">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H619">
         <v>385</v>
@@ -26138,10 +26138,10 @@
         <v>2</v>
       </c>
       <c r="F620">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G620">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H620">
         <v>357</v>
@@ -26179,10 +26179,10 @@
         <v>7</v>
       </c>
       <c r="F621">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G621">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H621">
         <v>384</v>
@@ -26220,10 +26220,10 @@
         <v>3</v>
       </c>
       <c r="F622">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G622">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H622">
         <v>491</v>
@@ -26261,10 +26261,10 @@
         <v>0</v>
       </c>
       <c r="F623">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G623">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H623">
         <v>12</v>
@@ -26302,10 +26302,10 @@
         <v>0</v>
       </c>
       <c r="F624">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G624">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H624">
         <v>7</v>
@@ -26343,10 +26343,10 @@
         <v>2</v>
       </c>
       <c r="F625">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G625">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H625">
         <v>612</v>
@@ -26384,10 +26384,10 @@
         <v>7</v>
       </c>
       <c r="F626">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G626">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H626">
         <v>402</v>
@@ -28680,10 +28680,10 @@
         <v>0</v>
       </c>
       <c r="F682">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G682">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H682">
         <v>1187</v>
@@ -28721,10 +28721,10 @@
         <v>0</v>
       </c>
       <c r="F683">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G683">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H683">
         <v>672</v>
@@ -28762,10 +28762,10 @@
         <v>3</v>
       </c>
       <c r="F684">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G684">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H684">
         <v>613</v>
@@ -28803,10 +28803,10 @@
         <v>5</v>
       </c>
       <c r="F685">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G685">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H685">
         <v>600</v>
@@ -28844,10 +28844,10 @@
         <v>0</v>
       </c>
       <c r="F686">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G686">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H686">
         <v>577</v>
@@ -28885,10 +28885,10 @@
         <v>1</v>
       </c>
       <c r="F687">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G687">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H687">
         <v>5</v>
@@ -28926,10 +28926,10 @@
         <v>0</v>
       </c>
       <c r="F688">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G688">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H688">
         <v>3</v>
@@ -28967,10 +28967,10 @@
         <v>0</v>
       </c>
       <c r="F689">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G689">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H689">
         <v>959</v>
@@ -29008,10 +29008,10 @@
         <v>0</v>
       </c>
       <c r="F690">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G690">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H690">
         <v>512</v>
@@ -29049,10 +29049,10 @@
         <v>0</v>
       </c>
       <c r="F691">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G691">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H691">
         <v>514</v>
@@ -29090,10 +29090,10 @@
         <v>1</v>
       </c>
       <c r="F692">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G692">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H692">
         <v>478</v>
@@ -29131,10 +29131,10 @@
         <v>3</v>
       </c>
       <c r="F693">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G693">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H693">
         <v>525</v>
@@ -29172,10 +29172,10 @@
         <v>4</v>
       </c>
       <c r="F694">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G694">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H694">
         <v>4</v>
@@ -29213,10 +29213,10 @@
         <v>0</v>
       </c>
       <c r="F695">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G695">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H695">
         <v>3</v>
@@ -29254,10 +29254,10 @@
         <v>0</v>
       </c>
       <c r="F696">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G696">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H696">
         <v>853</v>
@@ -29295,10 +29295,10 @@
         <v>10</v>
       </c>
       <c r="F697">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G697">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H697">
         <v>483</v>
@@ -29336,10 +29336,10 @@
         <v>2</v>
       </c>
       <c r="F698">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G698">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H698">
         <v>430</v>
@@ -29377,10 +29377,10 @@
         <v>17</v>
       </c>
       <c r="F699">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G699">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H699">
         <v>436</v>
@@ -29418,10 +29418,10 @@
         <v>6</v>
       </c>
       <c r="F700">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G700">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H700">
         <v>464</v>
@@ -29459,10 +29459,10 @@
         <v>2</v>
       </c>
       <c r="F701">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G701">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H701">
         <v>5</v>
@@ -29541,10 +29541,10 @@
         <v>1</v>
       </c>
       <c r="F703">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G703">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H703">
         <v>755</v>
@@ -29582,10 +29582,10 @@
         <v>15</v>
       </c>
       <c r="F704">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G704">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H704">
         <v>410</v>
@@ -29623,10 +29623,10 @@
         <v>5</v>
       </c>
       <c r="F705">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G705">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H705">
         <v>448</v>
@@ -29664,10 +29664,10 @@
         <v>6</v>
       </c>
       <c r="F706">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G706">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H706">
         <v>378</v>
@@ -29705,10 +29705,10 @@
         <v>4</v>
       </c>
       <c r="F707">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G707">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H707">
         <v>489</v>
@@ -29746,10 +29746,10 @@
         <v>5</v>
       </c>
       <c r="F708">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G708">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H708">
         <v>6</v>
@@ -29787,10 +29787,10 @@
         <v>0</v>
       </c>
       <c r="F709">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H709">
         <v>4</v>
@@ -29828,10 +29828,10 @@
         <v>0</v>
       </c>
       <c r="F710">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G710">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H710">
         <v>798</v>
@@ -29869,10 +29869,10 @@
         <v>3</v>
       </c>
       <c r="F711">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G711">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H711">
         <v>506</v>
@@ -32165,10 +32165,10 @@
         <v>55</v>
       </c>
       <c r="F767">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="G767">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="H767">
         <v>40085</v>
@@ -32206,10 +32206,10 @@
         <v>152</v>
       </c>
       <c r="F768">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="G768">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="H768">
         <v>23488</v>
@@ -32247,10 +32247,10 @@
         <v>78</v>
       </c>
       <c r="F769">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="G769">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="H769">
         <v>21671</v>
@@ -32288,10 +32288,10 @@
         <v>112</v>
       </c>
       <c r="F770">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="G770">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="H770">
         <v>20906</v>
@@ -32329,10 +32329,10 @@
         <v>85</v>
       </c>
       <c r="F771">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G771">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="H771">
         <v>20924</v>
@@ -32370,10 +32370,10 @@
         <v>46</v>
       </c>
       <c r="F772">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G772">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H772">
         <v>429</v>
@@ -32411,10 +32411,10 @@
         <v>21</v>
       </c>
       <c r="F773">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G773">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H773">
         <v>319</v>
@@ -32452,10 +32452,10 @@
         <v>68</v>
       </c>
       <c r="F774">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="G774">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="H774">
         <v>32929</v>
@@ -32493,10 +32493,10 @@
         <v>89</v>
       </c>
       <c r="F775">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G775">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H775">
         <v>20365</v>
@@ -32534,10 +32534,10 @@
         <v>109</v>
       </c>
       <c r="F776">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="G776">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="H776">
         <v>18901</v>
@@ -32575,10 +32575,10 @@
         <v>110</v>
       </c>
       <c r="F777">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G777">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="H777">
         <v>17727</v>
@@ -32616,10 +32616,10 @@
         <v>104</v>
       </c>
       <c r="F778">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="G778">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="H778">
         <v>17804</v>
@@ -32657,10 +32657,10 @@
         <v>42</v>
       </c>
       <c r="F779">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G779">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H779">
         <v>441</v>
@@ -32698,10 +32698,10 @@
         <v>10</v>
       </c>
       <c r="F780">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G780">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H780">
         <v>331</v>
@@ -32739,10 +32739,10 @@
         <v>94</v>
       </c>
       <c r="F781">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G781">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H781">
         <v>30246</v>
@@ -32780,10 +32780,10 @@
         <v>133</v>
       </c>
       <c r="F782">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G782">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="H782">
         <v>18088</v>
@@ -32821,10 +32821,10 @@
         <v>113</v>
       </c>
       <c r="F783">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G783">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="H783">
         <v>17279</v>
@@ -32862,10 +32862,10 @@
         <v>132</v>
       </c>
       <c r="F784">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="G784">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="H784">
         <v>16962</v>
@@ -32903,10 +32903,10 @@
         <v>131</v>
       </c>
       <c r="F785">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="G785">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="H785">
         <v>17178</v>
@@ -32944,10 +32944,10 @@
         <v>49</v>
       </c>
       <c r="F786">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G786">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H786">
         <v>407</v>
@@ -32985,10 +32985,10 @@
         <v>40</v>
       </c>
       <c r="F787">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G787">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H787">
         <v>308</v>
@@ -33026,10 +33026,10 @@
         <v>77</v>
       </c>
       <c r="F788">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G788">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="H788">
         <v>27615</v>
@@ -33067,10 +33067,10 @@
         <v>155</v>
       </c>
       <c r="F789">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G789">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H789">
         <v>17318</v>
@@ -33108,10 +33108,10 @@
         <v>93</v>
       </c>
       <c r="F790">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="G790">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="H790">
         <v>16856</v>
@@ -33149,10 +33149,10 @@
         <v>122</v>
       </c>
       <c r="F791">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G791">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H791">
         <v>16528</v>
@@ -33190,10 +33190,10 @@
         <v>108</v>
       </c>
       <c r="F792">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="G792">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H792">
         <v>17661</v>
@@ -33231,10 +33231,10 @@
         <v>39</v>
       </c>
       <c r="F793">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G793">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H793">
         <v>656</v>
@@ -33272,10 +33272,10 @@
         <v>34</v>
       </c>
       <c r="F794">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G794">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H794">
         <v>443</v>
@@ -33313,10 +33313,10 @@
         <v>72</v>
       </c>
       <c r="F795">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G795">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H795">
         <v>27776</v>
@@ -33354,10 +33354,10 @@
         <v>104</v>
       </c>
       <c r="F796">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G796">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="H796">
         <v>18698</v>
@@ -35650,10 +35650,10 @@
         <v>3</v>
       </c>
       <c r="F852">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G852">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H852">
         <v>2682</v>
@@ -35691,10 +35691,10 @@
         <v>22</v>
       </c>
       <c r="F853">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G853">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H853">
         <v>1705</v>
@@ -35732,10 +35732,10 @@
         <v>5</v>
       </c>
       <c r="F854">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G854">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H854">
         <v>1599</v>
@@ -35773,10 +35773,10 @@
         <v>8</v>
       </c>
       <c r="F855">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G855">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H855">
         <v>1532</v>
@@ -35814,10 +35814,10 @@
         <v>3</v>
       </c>
       <c r="F856">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G856">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H856">
         <v>1540</v>
@@ -35855,10 +35855,10 @@
         <v>2</v>
       </c>
       <c r="F857">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G857">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H857">
         <v>31</v>
@@ -35896,10 +35896,10 @@
         <v>1</v>
       </c>
       <c r="F858">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G858">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H858">
         <v>16</v>
@@ -35937,10 +35937,10 @@
         <v>8</v>
       </c>
       <c r="F859">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G859">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H859">
         <v>2347</v>
@@ -35978,10 +35978,10 @@
         <v>13</v>
       </c>
       <c r="F860">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G860">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H860">
         <v>1530</v>
@@ -36019,10 +36019,10 @@
         <v>11</v>
       </c>
       <c r="F861">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G861">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H861">
         <v>1418</v>
@@ -36060,10 +36060,10 @@
         <v>6</v>
       </c>
       <c r="F862">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G862">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H862">
         <v>1272</v>
@@ -36101,10 +36101,10 @@
         <v>8</v>
       </c>
       <c r="F863">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G863">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H863">
         <v>1306</v>
@@ -36142,10 +36142,10 @@
         <v>4</v>
       </c>
       <c r="F864">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G864">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H864">
         <v>28</v>
@@ -36183,10 +36183,10 @@
         <v>0</v>
       </c>
       <c r="F865">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G865">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H865">
         <v>23</v>
@@ -36224,10 +36224,10 @@
         <v>4</v>
       </c>
       <c r="F866">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G866">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H866">
         <v>2178</v>
@@ -36265,10 +36265,10 @@
         <v>6</v>
       </c>
       <c r="F867">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G867">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H867">
         <v>1398</v>
@@ -36306,10 +36306,10 @@
         <v>5</v>
       </c>
       <c r="F868">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G868">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H868">
         <v>1330</v>
@@ -36347,10 +36347,10 @@
         <v>4</v>
       </c>
       <c r="F869">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G869">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H869">
         <v>1324</v>
@@ -36388,10 +36388,10 @@
         <v>7</v>
       </c>
       <c r="F870">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G870">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H870">
         <v>1321</v>
@@ -36429,10 +36429,10 @@
         <v>0</v>
       </c>
       <c r="F871">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G871">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H871">
         <v>22</v>
@@ -36470,10 +36470,10 @@
         <v>0</v>
       </c>
       <c r="F872">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G872">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H872">
         <v>31</v>
@@ -36511,10 +36511,10 @@
         <v>3</v>
       </c>
       <c r="F873">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G873">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H873">
         <v>2159</v>
@@ -36552,10 +36552,10 @@
         <v>6</v>
       </c>
       <c r="F874">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G874">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H874">
         <v>1365</v>
@@ -36593,10 +36593,10 @@
         <v>2</v>
       </c>
       <c r="F875">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G875">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H875">
         <v>1424</v>
@@ -36634,10 +36634,10 @@
         <v>6</v>
       </c>
       <c r="F876">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G876">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H876">
         <v>1437</v>
@@ -36675,10 +36675,10 @@
         <v>3</v>
       </c>
       <c r="F877">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G877">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H877">
         <v>1456</v>
@@ -36716,10 +36716,10 @@
         <v>0</v>
       </c>
       <c r="F878">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G878">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H878">
         <v>60</v>
@@ -36798,10 +36798,10 @@
         <v>5</v>
       </c>
       <c r="F880">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G880">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H880">
         <v>2219</v>
@@ -36839,10 +36839,10 @@
         <v>4</v>
       </c>
       <c r="F881">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G881">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H881">
         <v>1597</v>
@@ -39135,10 +39135,10 @@
         <v>2</v>
       </c>
       <c r="F937">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G937">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H937">
         <v>2457</v>
@@ -39176,10 +39176,10 @@
         <v>4</v>
       </c>
       <c r="F938">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G938">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H938">
         <v>1363</v>
@@ -39217,10 +39217,10 @@
         <v>3</v>
       </c>
       <c r="F939">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G939">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H939">
         <v>1304</v>
@@ -39258,10 +39258,10 @@
         <v>0</v>
       </c>
       <c r="F940">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G940">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H940">
         <v>1228</v>
@@ -39299,10 +39299,10 @@
         <v>3</v>
       </c>
       <c r="F941">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G941">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H941">
         <v>1147</v>
@@ -39340,10 +39340,10 @@
         <v>0</v>
       </c>
       <c r="F942">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G942">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H942">
         <v>36</v>
@@ -39381,10 +39381,10 @@
         <v>0</v>
       </c>
       <c r="F943">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G943">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H943">
         <v>20</v>
@@ -39422,10 +39422,10 @@
         <v>1</v>
       </c>
       <c r="F944">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G944">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H944">
         <v>2120</v>
@@ -39463,10 +39463,10 @@
         <v>0</v>
       </c>
       <c r="F945">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G945">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H945">
         <v>1337</v>
@@ -39504,10 +39504,10 @@
         <v>7</v>
       </c>
       <c r="F946">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G946">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H946">
         <v>1263</v>
@@ -39545,10 +39545,10 @@
         <v>7</v>
       </c>
       <c r="F947">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G947">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H947">
         <v>1128</v>
@@ -39586,10 +39586,10 @@
         <v>0</v>
       </c>
       <c r="F948">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G948">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H948">
         <v>1166</v>
@@ -39627,10 +39627,10 @@
         <v>1</v>
       </c>
       <c r="F949">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G949">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H949">
         <v>9</v>
@@ -39668,10 +39668,10 @@
         <v>0</v>
       </c>
       <c r="F950">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G950">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H950">
         <v>20</v>
@@ -39709,10 +39709,10 @@
         <v>0</v>
       </c>
       <c r="F951">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G951">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H951">
         <v>2039</v>
@@ -39750,10 +39750,10 @@
         <v>5</v>
       </c>
       <c r="F952">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G952">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H952">
         <v>1082</v>
@@ -39791,10 +39791,10 @@
         <v>2</v>
       </c>
       <c r="F953">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G953">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H953">
         <v>1057</v>
@@ -39832,10 +39832,10 @@
         <v>0</v>
       </c>
       <c r="F954">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G954">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H954">
         <v>1115</v>
@@ -39873,10 +39873,10 @@
         <v>5</v>
       </c>
       <c r="F955">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G955">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H955">
         <v>1064</v>
@@ -39914,10 +39914,10 @@
         <v>6</v>
       </c>
       <c r="F956">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G956">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H956">
         <v>11</v>
@@ -39955,10 +39955,10 @@
         <v>0</v>
       </c>
       <c r="F957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H957">
         <v>16</v>
@@ -39996,10 +39996,10 @@
         <v>3</v>
       </c>
       <c r="F958">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G958">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H958">
         <v>1895</v>
@@ -40037,10 +40037,10 @@
         <v>5</v>
       </c>
       <c r="F959">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G959">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H959">
         <v>1177</v>
@@ -40078,10 +40078,10 @@
         <v>3</v>
       </c>
       <c r="F960">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G960">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H960">
         <v>1133</v>
@@ -40119,10 +40119,10 @@
         <v>1</v>
       </c>
       <c r="F961">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G961">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H961">
         <v>1066</v>
@@ -40160,10 +40160,10 @@
         <v>5</v>
       </c>
       <c r="F962">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G962">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H962">
         <v>1135</v>
@@ -40201,10 +40201,10 @@
         <v>0</v>
       </c>
       <c r="F963">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H963">
         <v>64</v>
@@ -40242,10 +40242,10 @@
         <v>0</v>
       </c>
       <c r="F964">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G964">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H964">
         <v>9</v>
@@ -40283,10 +40283,10 @@
         <v>5</v>
       </c>
       <c r="F965">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G965">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H965">
         <v>2034</v>
@@ -40324,10 +40324,10 @@
         <v>1</v>
       </c>
       <c r="F966">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G966">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H966">
         <v>1228</v>
@@ -42620,10 +42620,10 @@
         <v>1</v>
       </c>
       <c r="F1022">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G1022">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H1022">
         <v>4460</v>
@@ -42661,10 +42661,10 @@
         <v>6</v>
       </c>
       <c r="F1023">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G1023">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H1023">
         <v>2513</v>
@@ -42702,10 +42702,10 @@
         <v>8</v>
       </c>
       <c r="F1024">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G1024">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H1024">
         <v>2314</v>
@@ -42743,10 +42743,10 @@
         <v>10</v>
       </c>
       <c r="F1025">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1025">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1025">
         <v>2226</v>
@@ -42784,10 +42784,10 @@
         <v>8</v>
       </c>
       <c r="F1026">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G1026">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H1026">
         <v>2156</v>
@@ -42825,10 +42825,10 @@
         <v>6</v>
       </c>
       <c r="F1027">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1027">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1027">
         <v>60</v>
@@ -42866,10 +42866,10 @@
         <v>4</v>
       </c>
       <c r="F1028">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G1028">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H1028">
         <v>32</v>
@@ -42907,10 +42907,10 @@
         <v>4</v>
       </c>
       <c r="F1029">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1029">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1029">
         <v>3655</v>
@@ -42948,10 +42948,10 @@
         <v>17</v>
       </c>
       <c r="F1030">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G1030">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H1030">
         <v>2167</v>
@@ -42989,10 +42989,10 @@
         <v>12</v>
       </c>
       <c r="F1031">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G1031">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H1031">
         <v>1979</v>
@@ -43030,10 +43030,10 @@
         <v>19</v>
       </c>
       <c r="F1032">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G1032">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H1032">
         <v>1785</v>
@@ -43071,10 +43071,10 @@
         <v>26</v>
       </c>
       <c r="F1033">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1033">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1033">
         <v>1811</v>
@@ -43112,10 +43112,10 @@
         <v>6</v>
       </c>
       <c r="F1034">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1034">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1034">
         <v>42</v>
@@ -43153,10 +43153,10 @@
         <v>0</v>
       </c>
       <c r="F1035">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1035">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1035">
         <v>47</v>
@@ -43194,10 +43194,10 @@
         <v>7</v>
       </c>
       <c r="F1036">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1036">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1036">
         <v>3432</v>
@@ -43235,10 +43235,10 @@
         <v>33</v>
       </c>
       <c r="F1037">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G1037">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H1037">
         <v>1847</v>
@@ -43276,10 +43276,10 @@
         <v>18</v>
       </c>
       <c r="F1038">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G1038">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H1038">
         <v>1900</v>
@@ -43317,10 +43317,10 @@
         <v>25</v>
       </c>
       <c r="F1039">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G1039">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H1039">
         <v>1831</v>
@@ -43358,10 +43358,10 @@
         <v>27</v>
       </c>
       <c r="F1040">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G1040">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H1040">
         <v>1827</v>
@@ -43399,10 +43399,10 @@
         <v>12</v>
       </c>
       <c r="F1041">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1041">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1041">
         <v>54</v>
@@ -43440,10 +43440,10 @@
         <v>30</v>
       </c>
       <c r="F1042">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1042">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1042">
         <v>49</v>
@@ -43481,10 +43481,10 @@
         <v>16</v>
       </c>
       <c r="F1043">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G1043">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H1043">
         <v>3073</v>
@@ -43522,10 +43522,10 @@
         <v>17</v>
       </c>
       <c r="F1044">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G1044">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H1044">
         <v>1847</v>
@@ -43563,10 +43563,10 @@
         <v>13</v>
       </c>
       <c r="F1045">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G1045">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H1045">
         <v>1894</v>
@@ -43604,10 +43604,10 @@
         <v>13</v>
       </c>
       <c r="F1046">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1046">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1046">
         <v>1851</v>
@@ -43645,10 +43645,10 @@
         <v>31</v>
       </c>
       <c r="F1047">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G1047">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H1047">
         <v>1878</v>
@@ -43686,10 +43686,10 @@
         <v>19</v>
       </c>
       <c r="F1048">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1048">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1048">
         <v>62</v>
@@ -43727,10 +43727,10 @@
         <v>21</v>
       </c>
       <c r="F1049">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G1049">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H1049">
         <v>53</v>
@@ -43768,10 +43768,10 @@
         <v>4</v>
       </c>
       <c r="F1050">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1050">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1050">
         <v>3242</v>
@@ -43809,10 +43809,10 @@
         <v>30</v>
       </c>
       <c r="F1051">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G1051">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H1051">
         <v>2047</v>
@@ -46105,10 +46105,10 @@
         <v>5</v>
       </c>
       <c r="F1107">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G1107">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H1107">
         <v>2309</v>
@@ -46146,10 +46146,10 @@
         <v>2</v>
       </c>
       <c r="F1108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1108">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1108">
         <v>1474</v>
@@ -46187,10 +46187,10 @@
         <v>3</v>
       </c>
       <c r="F1109">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1109">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1109">
         <v>1310</v>
@@ -46228,10 +46228,10 @@
         <v>7</v>
       </c>
       <c r="F1110">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1110">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1110">
         <v>1259</v>
@@ -46269,10 +46269,10 @@
         <v>4</v>
       </c>
       <c r="F1111">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G1111">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1111">
         <v>1357</v>
@@ -46310,10 +46310,10 @@
         <v>3</v>
       </c>
       <c r="F1112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1112">
         <v>28</v>
@@ -46351,10 +46351,10 @@
         <v>0</v>
       </c>
       <c r="F1113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1113">
         <v>18</v>
@@ -46392,10 +46392,10 @@
         <v>0</v>
       </c>
       <c r="F1114">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1114">
         <v>2146</v>
@@ -46433,10 +46433,10 @@
         <v>0</v>
       </c>
       <c r="F1115">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G1115">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H1115">
         <v>1263</v>
@@ -46474,10 +46474,10 @@
         <v>0</v>
       </c>
       <c r="F1116">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G1116">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H1116">
         <v>1217</v>
@@ -46515,10 +46515,10 @@
         <v>1</v>
       </c>
       <c r="F1117">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G1117">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H1117">
         <v>1207</v>
@@ -46556,10 +46556,10 @@
         <v>0</v>
       </c>
       <c r="F1118">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1118">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1118">
         <v>1227</v>
@@ -46597,10 +46597,10 @@
         <v>0</v>
       </c>
       <c r="F1119">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G1119">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H1119">
         <v>36</v>
@@ -46638,10 +46638,10 @@
         <v>0</v>
       </c>
       <c r="F1120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1120">
         <v>30</v>
@@ -46679,10 +46679,10 @@
         <v>2</v>
       </c>
       <c r="F1121">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1121">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1121">
         <v>2253</v>
@@ -46720,10 +46720,10 @@
         <v>4</v>
       </c>
       <c r="F1122">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G1122">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H1122">
         <v>1374</v>
@@ -46761,10 +46761,10 @@
         <v>0</v>
       </c>
       <c r="F1123">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1123">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1123">
         <v>1359</v>
@@ -46802,10 +46802,10 @@
         <v>2</v>
       </c>
       <c r="F1124">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G1124">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H1124">
         <v>1283</v>
@@ -46843,10 +46843,10 @@
         <v>0</v>
       </c>
       <c r="F1125">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1125">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H1125">
         <v>1303</v>
@@ -46884,10 +46884,10 @@
         <v>1</v>
       </c>
       <c r="F1126">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1126">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1126">
         <v>32</v>
@@ -46925,10 +46925,10 @@
         <v>0</v>
       </c>
       <c r="F1127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1127">
         <v>23</v>
@@ -46966,10 +46966,10 @@
         <v>0</v>
       </c>
       <c r="F1128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1128">
         <v>2270</v>
@@ -47007,10 +47007,10 @@
         <v>1</v>
       </c>
       <c r="F1129">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G1129">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H1129">
         <v>1434</v>
@@ -47048,10 +47048,10 @@
         <v>0</v>
       </c>
       <c r="F1130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1130">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H1130">
         <v>1356</v>
@@ -47089,10 +47089,10 @@
         <v>2</v>
       </c>
       <c r="F1131">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G1131">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H1131">
         <v>1365</v>
@@ -47130,10 +47130,10 @@
         <v>0</v>
       </c>
       <c r="F1132">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G1132">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H1132">
         <v>1466</v>
@@ -47171,10 +47171,10 @@
         <v>0</v>
       </c>
       <c r="F1133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1133">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1133">
         <v>70</v>
@@ -47212,10 +47212,10 @@
         <v>0</v>
       </c>
       <c r="F1134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1134">
         <v>38</v>
@@ -47253,10 +47253,10 @@
         <v>1</v>
       </c>
       <c r="F1135">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G1135">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H1135">
         <v>2308</v>
@@ -47294,10 +47294,10 @@
         <v>0</v>
       </c>
       <c r="F1136">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1136">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1136">
         <v>1475</v>
@@ -49590,10 +49590,10 @@
         <v>10</v>
       </c>
       <c r="F1192">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G1192">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H1192">
         <v>2517</v>
@@ -49631,10 +49631,10 @@
         <v>24</v>
       </c>
       <c r="F1193">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G1193">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H1193">
         <v>1528</v>
@@ -49672,10 +49672,10 @@
         <v>8</v>
       </c>
       <c r="F1194">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G1194">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H1194">
         <v>1309</v>
@@ -49713,10 +49713,10 @@
         <v>11</v>
       </c>
       <c r="F1195">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1195">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H1195">
         <v>1317</v>
@@ -49754,10 +49754,10 @@
         <v>8</v>
       </c>
       <c r="F1196">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G1196">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H1196">
         <v>1289</v>
@@ -49795,10 +49795,10 @@
         <v>3</v>
       </c>
       <c r="F1197">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G1197">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H1197">
         <v>32</v>
@@ -49836,10 +49836,10 @@
         <v>7</v>
       </c>
       <c r="F1198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1198">
         <v>12</v>
@@ -49877,10 +49877,10 @@
         <v>6</v>
       </c>
       <c r="F1199">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1199">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1199">
         <v>2078</v>
@@ -49918,10 +49918,10 @@
         <v>8</v>
       </c>
       <c r="F1200">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G1200">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H1200">
         <v>1349</v>
@@ -49959,10 +49959,10 @@
         <v>6</v>
       </c>
       <c r="F1201">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G1201">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H1201">
         <v>1208</v>
@@ -50000,10 +50000,10 @@
         <v>13</v>
       </c>
       <c r="F1202">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G1202">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H1202">
         <v>1160</v>
@@ -50041,10 +50041,10 @@
         <v>5</v>
       </c>
       <c r="F1203">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G1203">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H1203">
         <v>1221</v>
@@ -50082,10 +50082,10 @@
         <v>0</v>
       </c>
       <c r="F1204">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G1204">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1204">
         <v>23</v>
@@ -50123,10 +50123,10 @@
         <v>1</v>
       </c>
       <c r="F1205">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G1205">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1205">
         <v>17</v>
@@ -50164,10 +50164,10 @@
         <v>11</v>
       </c>
       <c r="F1206">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G1206">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H1206">
         <v>1970</v>
@@ -50205,10 +50205,10 @@
         <v>5</v>
       </c>
       <c r="F1207">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G1207">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H1207">
         <v>1174</v>
@@ -50246,10 +50246,10 @@
         <v>13</v>
       </c>
       <c r="F1208">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G1208">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H1208">
         <v>1152</v>
@@ -50287,10 +50287,10 @@
         <v>10</v>
       </c>
       <c r="F1209">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G1209">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H1209">
         <v>1098</v>
@@ -50328,10 +50328,10 @@
         <v>8</v>
       </c>
       <c r="F1210">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G1210">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H1210">
         <v>1135</v>
@@ -50369,10 +50369,10 @@
         <v>0</v>
       </c>
       <c r="F1211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1211">
         <v>15</v>
@@ -50451,10 +50451,10 @@
         <v>11</v>
       </c>
       <c r="F1213">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1213">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1213">
         <v>1787</v>
@@ -50492,10 +50492,10 @@
         <v>21</v>
       </c>
       <c r="F1214">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G1214">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H1214">
         <v>1170</v>
@@ -50533,10 +50533,10 @@
         <v>4</v>
       </c>
       <c r="F1215">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G1215">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H1215">
         <v>1120</v>
@@ -50574,10 +50574,10 @@
         <v>14</v>
       </c>
       <c r="F1216">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1216">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1216">
         <v>960</v>
@@ -50615,10 +50615,10 @@
         <v>0</v>
       </c>
       <c r="F1217">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1217">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H1217">
         <v>1138</v>
@@ -50656,10 +50656,10 @@
         <v>1</v>
       </c>
       <c r="F1218">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1218">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1218">
         <v>28</v>
@@ -50697,10 +50697,10 @@
         <v>1</v>
       </c>
       <c r="F1219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1219">
         <v>12</v>
@@ -50738,10 +50738,10 @@
         <v>3</v>
       </c>
       <c r="F1220">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1220">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1220">
         <v>1883</v>
@@ -50779,10 +50779,10 @@
         <v>7</v>
       </c>
       <c r="F1221">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1221">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1221">
         <v>1290</v>
@@ -53075,10 +53075,10 @@
         <v>3</v>
       </c>
       <c r="F1277">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G1277">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H1277">
         <v>4350</v>
@@ -53116,10 +53116,10 @@
         <v>4</v>
       </c>
       <c r="F1278">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G1278">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H1278">
         <v>2450</v>
@@ -53157,10 +53157,10 @@
         <v>3</v>
       </c>
       <c r="F1279">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G1279">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H1279">
         <v>2325</v>
@@ -53198,10 +53198,10 @@
         <v>5</v>
       </c>
       <c r="F1280">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G1280">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H1280">
         <v>2258</v>
@@ -53239,10 +53239,10 @@
         <v>1</v>
       </c>
       <c r="F1281">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G1281">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H1281">
         <v>2305</v>
@@ -53280,10 +53280,10 @@
         <v>4</v>
       </c>
       <c r="F1282">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1282">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1282">
         <v>32</v>
@@ -53321,10 +53321,10 @@
         <v>4</v>
       </c>
       <c r="F1283">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1283">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1283">
         <v>21</v>
@@ -53362,10 +53362,10 @@
         <v>4</v>
       </c>
       <c r="F1284">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G1284">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H1284">
         <v>3437</v>
@@ -53403,10 +53403,10 @@
         <v>6</v>
       </c>
       <c r="F1285">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G1285">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H1285">
         <v>2124</v>
@@ -53444,10 +53444,10 @@
         <v>7</v>
       </c>
       <c r="F1286">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G1286">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H1286">
         <v>1921</v>
@@ -53485,10 +53485,10 @@
         <v>2</v>
       </c>
       <c r="F1287">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G1287">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H1287">
         <v>1823</v>
@@ -53526,10 +53526,10 @@
         <v>0</v>
       </c>
       <c r="F1288">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G1288">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H1288">
         <v>1744</v>
@@ -53567,10 +53567,10 @@
         <v>4</v>
       </c>
       <c r="F1289">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1289">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1289">
         <v>29</v>
@@ -53608,10 +53608,10 @@
         <v>1</v>
       </c>
       <c r="F1290">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1290">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H1290">
         <v>26</v>
@@ -53649,10 +53649,10 @@
         <v>6</v>
       </c>
       <c r="F1291">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G1291">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H1291">
         <v>2995</v>
@@ -53690,10 +53690,10 @@
         <v>3</v>
       </c>
       <c r="F1292">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G1292">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H1292">
         <v>1769</v>
@@ -53731,10 +53731,10 @@
         <v>1</v>
       </c>
       <c r="F1293">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G1293">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H1293">
         <v>1725</v>
@@ -53772,10 +53772,10 @@
         <v>5</v>
       </c>
       <c r="F1294">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G1294">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H1294">
         <v>1538</v>
@@ -53813,10 +53813,10 @@
         <v>8</v>
       </c>
       <c r="F1295">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G1295">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H1295">
         <v>1660</v>
@@ -53854,10 +53854,10 @@
         <v>3</v>
       </c>
       <c r="F1296">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1296">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1296">
         <v>30</v>
@@ -53895,10 +53895,10 @@
         <v>1</v>
       </c>
       <c r="F1297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1297">
         <v>18</v>
@@ -53936,10 +53936,10 @@
         <v>5</v>
       </c>
       <c r="F1298">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G1298">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H1298">
         <v>2705</v>
@@ -53977,10 +53977,10 @@
         <v>2</v>
       </c>
       <c r="F1299">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G1299">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H1299">
         <v>1556</v>
@@ -54018,10 +54018,10 @@
         <v>1</v>
       </c>
       <c r="F1300">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G1300">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H1300">
         <v>1467</v>
@@ -54059,10 +54059,10 @@
         <v>7</v>
       </c>
       <c r="F1301">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G1301">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H1301">
         <v>1485</v>
@@ -54100,10 +54100,10 @@
         <v>10</v>
       </c>
       <c r="F1302">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G1302">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H1302">
         <v>1607</v>
@@ -54141,10 +54141,10 @@
         <v>2</v>
       </c>
       <c r="F1303">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1303">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1303">
         <v>72</v>
@@ -54182,10 +54182,10 @@
         <v>1</v>
       </c>
       <c r="F1304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1304">
         <v>22</v>
@@ -54223,10 +54223,10 @@
         <v>1</v>
       </c>
       <c r="F1305">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1305">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1305">
         <v>2395</v>
@@ -54264,10 +54264,10 @@
         <v>10</v>
       </c>
       <c r="F1306">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G1306">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H1306">
         <v>1711</v>
@@ -56560,10 +56560,10 @@
         <v>0</v>
       </c>
       <c r="F1362">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1362">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H1362">
         <v>832</v>
@@ -56601,10 +56601,10 @@
         <v>7</v>
       </c>
       <c r="F1363">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G1363">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1363">
         <v>438</v>
@@ -56642,10 +56642,10 @@
         <v>0</v>
       </c>
       <c r="F1364">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G1364">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1364">
         <v>412</v>
@@ -56683,10 +56683,10 @@
         <v>1</v>
       </c>
       <c r="F1365">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1365">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H1365">
         <v>370</v>
@@ -56724,10 +56724,10 @@
         <v>1</v>
       </c>
       <c r="F1366">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1366">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1366">
         <v>402</v>
@@ -56765,10 +56765,10 @@
         <v>2</v>
       </c>
       <c r="F1367">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1367">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1367">
         <v>4</v>
@@ -56806,10 +56806,10 @@
         <v>1</v>
       </c>
       <c r="F1368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1368">
         <v>2</v>
@@ -56847,10 +56847,10 @@
         <v>1</v>
       </c>
       <c r="F1369">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1369">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1369">
         <v>560</v>
@@ -56888,10 +56888,10 @@
         <v>3</v>
       </c>
       <c r="F1370">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G1370">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H1370">
         <v>359</v>
@@ -56929,10 +56929,10 @@
         <v>3</v>
       </c>
       <c r="F1371">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1371">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1371">
         <v>301</v>
@@ -56970,10 +56970,10 @@
         <v>4</v>
       </c>
       <c r="F1372">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1372">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1372">
         <v>275</v>
@@ -57011,10 +57011,10 @@
         <v>3</v>
       </c>
       <c r="F1373">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G1373">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H1373">
         <v>303</v>
@@ -57052,10 +57052,10 @@
         <v>2</v>
       </c>
       <c r="F1374">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1374">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H1374">
         <v>7</v>
@@ -57093,10 +57093,10 @@
         <v>2</v>
       </c>
       <c r="F1375">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1375">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1375">
         <v>5</v>
@@ -57134,10 +57134,10 @@
         <v>0</v>
       </c>
       <c r="F1376">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1376">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H1376">
         <v>481</v>
@@ -57175,10 +57175,10 @@
         <v>4</v>
       </c>
       <c r="F1377">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1377">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1377">
         <v>277</v>
@@ -57216,10 +57216,10 @@
         <v>0</v>
       </c>
       <c r="F1378">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1378">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1378">
         <v>260</v>
@@ -57257,10 +57257,10 @@
         <v>0</v>
       </c>
       <c r="F1379">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1379">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H1379">
         <v>248</v>
@@ -57298,10 +57298,10 @@
         <v>2</v>
       </c>
       <c r="F1380">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1380">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1380">
         <v>278</v>
@@ -57339,10 +57339,10 @@
         <v>0</v>
       </c>
       <c r="F1381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1381">
         <v>5</v>
@@ -57421,10 +57421,10 @@
         <v>1</v>
       </c>
       <c r="F1383">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G1383">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1383">
         <v>477</v>
@@ -57462,10 +57462,10 @@
         <v>1</v>
       </c>
       <c r="F1384">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G1384">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1384">
         <v>261</v>
@@ -57503,10 +57503,10 @@
         <v>1</v>
       </c>
       <c r="F1385">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G1385">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1385">
         <v>274</v>
@@ -57544,10 +57544,10 @@
         <v>0</v>
       </c>
       <c r="F1386">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1386">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H1386">
         <v>243</v>
@@ -57585,10 +57585,10 @@
         <v>0</v>
       </c>
       <c r="F1387">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G1387">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H1387">
         <v>257</v>
@@ -57626,10 +57626,10 @@
         <v>0</v>
       </c>
       <c r="F1388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1388">
         <v>2</v>
@@ -57667,10 +57667,10 @@
         <v>0</v>
       </c>
       <c r="F1389">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1389">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1389">
         <v>5</v>
@@ -57708,10 +57708,10 @@
         <v>2</v>
       </c>
       <c r="F1390">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G1390">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H1390">
         <v>378</v>
@@ -57749,10 +57749,10 @@
         <v>5</v>
       </c>
       <c r="F1391">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G1391">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1391">
         <v>233</v>
@@ -60099,10 +60099,10 @@
         <v>55</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="G2">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>40085</v>
@@ -60140,10 +60140,10 @@
         <v>55</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="G3">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>40085</v>
@@ -60181,10 +60181,10 @@
         <v>152</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="G4">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>23488</v>
@@ -60222,10 +60222,10 @@
         <v>152</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="G5">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>23487</v>
@@ -60263,10 +60263,10 @@
         <v>78</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="G6">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>21671</v>
@@ -60304,10 +60304,10 @@
         <v>78</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="G7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>21671</v>
@@ -60345,10 +60345,10 @@
         <v>112</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="G8">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>20906</v>
@@ -60386,10 +60386,10 @@
         <v>112</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="G9">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>20906</v>
@@ -60427,10 +60427,10 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G10">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>20924</v>
@@ -60468,10 +60468,10 @@
         <v>85</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G11">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>20924</v>
@@ -60509,10 +60509,10 @@
         <v>46</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G12">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>429</v>
@@ -60550,10 +60550,10 @@
         <v>46</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G13">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>429</v>
@@ -60591,10 +60591,10 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>319</v>
@@ -60632,10 +60632,10 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>319</v>
@@ -60673,10 +60673,10 @@
         <v>68</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="G16">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>32929</v>
@@ -60714,10 +60714,10 @@
         <v>68</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="G17">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>32929</v>
@@ -60755,10 +60755,10 @@
         <v>89</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G18">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>20365</v>
@@ -60796,10 +60796,10 @@
         <v>89</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G19">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>20365</v>
@@ -60837,10 +60837,10 @@
         <v>109</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="G20">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>18901</v>
@@ -60878,10 +60878,10 @@
         <v>109</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="G21">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>18901</v>
@@ -60919,10 +60919,10 @@
         <v>110</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G22">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>17727</v>
@@ -60960,10 +60960,10 @@
         <v>110</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G23">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>17727</v>
@@ -61001,10 +61001,10 @@
         <v>104</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="G24">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>17804</v>
@@ -61042,10 +61042,10 @@
         <v>104</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="G25">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>17804</v>
@@ -61083,10 +61083,10 @@
         <v>42</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G26">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>441</v>
@@ -61124,10 +61124,10 @@
         <v>42</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G27">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>441</v>
@@ -61165,10 +61165,10 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G28">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>331</v>
@@ -61206,10 +61206,10 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G29">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>331</v>
@@ -61247,10 +61247,10 @@
         <v>94</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G30">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>30246</v>
@@ -61288,10 +61288,10 @@
         <v>94</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G31">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>30244</v>
@@ -61329,10 +61329,10 @@
         <v>133</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G32">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>18088</v>
@@ -61370,10 +61370,10 @@
         <v>133</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G33">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>18088</v>
@@ -61411,10 +61411,10 @@
         <v>113</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G34">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>17279</v>
@@ -61452,10 +61452,10 @@
         <v>113</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G35">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>17276</v>
@@ -61493,10 +61493,10 @@
         <v>132</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="G36">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>16962</v>
@@ -61534,10 +61534,10 @@
         <v>132</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="G37">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>16959</v>
@@ -61575,10 +61575,10 @@
         <v>131</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="G38">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>17178</v>
@@ -61616,10 +61616,10 @@
         <v>131</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="G39">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>17176</v>
@@ -61657,10 +61657,10 @@
         <v>49</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G40">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>407</v>
@@ -61698,10 +61698,10 @@
         <v>49</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G41">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>407</v>
@@ -61739,10 +61739,10 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>308</v>
@@ -61780,10 +61780,10 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G43">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>308</v>
@@ -61821,10 +61821,10 @@
         <v>77</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G44">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>27615</v>
@@ -61862,10 +61862,10 @@
         <v>77</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G45">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>27614</v>
@@ -61903,10 +61903,10 @@
         <v>155</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G46">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>17318</v>
@@ -61944,10 +61944,10 @@
         <v>155</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G47">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>17315</v>
@@ -61985,10 +61985,10 @@
         <v>93</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="G48">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>16856</v>
@@ -62026,10 +62026,10 @@
         <v>93</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="G49">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>16855</v>
@@ -62067,10 +62067,10 @@
         <v>122</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G50">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>16528</v>
@@ -62108,10 +62108,10 @@
         <v>122</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G51">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>16523</v>
@@ -62149,10 +62149,10 @@
         <v>108</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="G52">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>17661</v>
@@ -62190,10 +62190,10 @@
         <v>108</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="G53">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>17659</v>
@@ -62231,10 +62231,10 @@
         <v>39</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G54">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>656</v>
@@ -62272,10 +62272,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G55">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>656</v>
@@ -62313,10 +62313,10 @@
         <v>34</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G56">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>443</v>
@@ -62354,10 +62354,10 @@
         <v>34</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G57">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>443</v>
@@ -62395,10 +62395,10 @@
         <v>72</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G58">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>27776</v>
@@ -62436,10 +62436,10 @@
         <v>72</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="G59">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>27764</v>
@@ -62477,10 +62477,10 @@
         <v>104</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G60">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>18698</v>
@@ -62518,10 +62518,10 @@
         <v>104</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G61">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>18693</v>
